--- a/src/ESFA.DC.ILR.ReportService.Service/Reports/Templates/ILRDataQualityReportTemplate.xlsx
+++ b/src/ESFA.DC.ILR.ReportService.Service/Reports/Templates/ILRDataQualityReportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEBE1A-95ED-4C39-A241-77308CCA36CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40773126-5E7A-48C9-9899-9408A1F5B2AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="1770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ILR Data Quality Reports - R08</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>No.of Providers</t>
+  </si>
+  <si>
+    <t>Top 20 Rule Violations</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Providers</t>
+  </si>
+  <si>
+    <t>Learners</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>&amp;=RuleViolationsInfo.RuleName</t>
+  </si>
+  <si>
+    <t>&amp;=RuleViolationsInfo.ErrorMessage</t>
+  </si>
+  <si>
+    <t>&amp;=RuleViolationsInfo.Providers</t>
+  </si>
+  <si>
+    <t>&amp;=RuleViolationsInfo.Learners</t>
+  </si>
+  <si>
+    <t>&amp;=RuleViolationsInfo.NoOfErrors</t>
   </si>
 </sst>
 </file>
@@ -49,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,8 +108,33 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,13 +147,58 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4682B4"/>
+        <bgColor rgb="FF4682B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -104,15 +207,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,83 +640,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F22A55-F14A-458E-B18C-794EF0F5CA37}">
-  <dimension ref="B2:L5"/>
+  <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="33" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:16" ht="33" customHeight="1">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="3" spans="2:16" ht="15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15">
+    <row r="4" spans="2:16" ht="15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1">
-      <c r="B5" t="s">
+    <row r="5" spans="2:16" ht="15" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="25.5">
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1">
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -606,5 +780,6 @@
     <mergeCell ref="B4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>